--- a/Project tracker1.xlsx
+++ b/Project tracker1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Dropbox\TT284\EMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{0C82FF53-61CE-4006-844E-6538D8569309}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D9C9F-E63A-4F93-A303-EAD70855475A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Setup" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CategoryList">Setup!$B$5:$B$11</definedName>
-    <definedName name="ColumnTitle1" localSheetId="1">'Project Activities Breakdown'!$B$4</definedName>
+    <definedName name="CategoryList">Setup!$B$5:$B$12</definedName>
+    <definedName name="ColumnTitle1" localSheetId="1">'Project Activities Breakdown'!$C$4</definedName>
     <definedName name="ColumnTitle1">'Main Project Tasks'!$B$4</definedName>
     <definedName name="ColumnTitle2" localSheetId="1">CategoryAndEmployeeTable[[#Headers],[Category Name]]</definedName>
     <definedName name="ColumnTitle2">CategoryAndEmployeeTable[[#Headers],[Category Name]]</definedName>
     <definedName name="EmployeeList" localSheetId="1">Setup!#REF!</definedName>
     <definedName name="EmployeeList">Setup!#REF!</definedName>
-    <definedName name="FlagPercent" localSheetId="1">'Project Activities Breakdown'!$D$2</definedName>
+    <definedName name="FlagPercent" localSheetId="1">'Project Activities Breakdown'!$E$2</definedName>
     <definedName name="FlagPercent">'Main Project Tasks'!$D$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Main Project Tasks'!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project Activities Breakdown'!$4:$4</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>Project</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Category 5</t>
   </si>
   <si>
     <t>Estimated
@@ -122,12 +119,13 @@
     <t xml:space="preserve">Identify software components and technologies used for various parts of the site. E.G. SQL lite database to hold users. PHP to handle web forms etc. </t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Create responsive web page for users to submit a walk</t>
   </si>
   <si>
-    <t>Produce report on what is required for Authentication and authorisation on the website.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create PHP script to test submission of a walk as a user </t>
   </si>
   <si>
@@ -137,13 +135,7 @@
     <t>Final testing to catch any missed bugs / implement missing features</t>
   </si>
   <si>
-    <t>Produce report on the purpose of verion control software. Why it should be used and how it should be used.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test overall site works as it should. Meeting the user specefications. </t>
-  </si>
-  <si>
-    <t>Work Plan Refelction</t>
   </si>
   <si>
     <t>Main Tasks</t>
@@ -212,20 +204,10 @@
     <t>Use provided SQLlite Database. PHP / HTML / CSS / Javascript</t>
   </si>
   <si>
-    <t>Main Task - Produce report on what is required for Authentication and Authorisation</t>
-  </si>
-  <si>
     <t>(300 words)</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Task - Produce report on what is required for Authentication and Authorisation 
-</t>
-  </si>
-  <si>
     <t>Main Task - Create a responsive web page for users to submit a walk</t>
-  </si>
-  <si>
-    <t>Project Activity</t>
   </si>
   <si>
     <t>1. Should be a reflection of the wireframe created earlier</t>
@@ -261,6 +243,91 @@
   </si>
   <si>
     <t>Main Task - Create PHP script to test submission  of a walk by a user</t>
+  </si>
+  <si>
+    <t>1. Create a PHP test script which submits a walk and stores the data in the database.</t>
+  </si>
+  <si>
+    <t>2. Create a PHP script that will query the database for all walks over a number of days. Past and future. Numbers should entered by the User and validated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Information about each walk should be presented back to the user in a web page format. </t>
+  </si>
+  <si>
+    <t>Styled the same as the submit a walk page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce report on what is required for Authentication and authorisation on the website. 
+</t>
+  </si>
+  <si>
+    <t>Produce report on the purpose of version control software. Why it should be used and how it should be used.</t>
+  </si>
+  <si>
+    <t>Main Activity - Produce a report on version control software and  how and why it should be used.</t>
+  </si>
+  <si>
+    <t>1. Create Local SVN Repo</t>
+  </si>
+  <si>
+    <t>Supply two pieces of eveidence. One taken halfway through project. Another  taken at the end. Caption evidence to explain what it is.</t>
+  </si>
+  <si>
+    <t>Main Activity - Test webpages work overall as intended.</t>
+  </si>
+  <si>
+    <t>Main Activity - Acceptance testing - Produce scripted tests for users to document how they should test the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Describe requirements the user needs to provide </t>
+  </si>
+  <si>
+    <t>2. Document instructions for user to follow</t>
+  </si>
+  <si>
+    <t>3. Document expected outcomes from good and bad data</t>
+  </si>
+  <si>
+    <t>Main Task - Final check over fro any missed requirements or to fix any bugs found</t>
+  </si>
+  <si>
+    <t>Work Plan Reflection</t>
+  </si>
+  <si>
+    <t>Main Task - Work Plan reflection, assesment of effectiveness of planning</t>
+  </si>
+  <si>
+    <t>1. Explain what aspectsof the plan were most useful</t>
+  </si>
+  <si>
+    <t>2. Was the risk Assessment useful?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. How would you approach the planning in the future? </t>
+  </si>
+  <si>
+    <t>3. Did the planning help with completing the EMA?</t>
+  </si>
+  <si>
+    <t>5. Lessons Learn't</t>
+  </si>
+  <si>
+    <t>Work plan reflections</t>
+  </si>
+  <si>
+    <t>Main Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Task - Produce report on what is required for Authentication and Authorisation </t>
+  </si>
+  <si>
+    <t>Sub Activities</t>
+  </si>
+  <si>
+    <t>Work plan reflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Show evidence of commit logs. </t>
   </si>
 </sst>
 </file>
@@ -353,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -499,7 +572,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +671,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -618,34 +697,22 @@
     <cellStyle name="Text" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFF8943F"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -670,22 +737,23 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FFF8943F"/>
+          <color theme="9"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -720,8 +788,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -818,13 +886,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>914866</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>26671</xdr:rowOff>
@@ -973,7 +1041,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjectTracker" displayName="ProjectTracker" ref="B4:N17" totalsRowShown="0" tableBorderDxfId="11" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjectTracker" displayName="ProjectTracker" ref="B4:N17" totalsRowShown="0" tableBorderDxfId="8" headerRowCellStyle="Heading 2">
   <autoFilter ref="B4:N17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project" dataCellStyle="Text"/>
@@ -986,7 +1054,7 @@
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual _x000a_Start" dataCellStyle="Actual Start"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual_x000a_Finish" dataCellStyle="Date"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="10" dataCellStyle="Flag">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="7" dataCellStyle="Flag">
       <calculatedColumnFormula>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Actual Work (in hours)" dataCellStyle="Numbers"/>
@@ -996,7 +1064,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Actual Duration (in days)" dataCellStyle="Grey Column">
       <calculatedColumnFormula>IF(COUNTA('Main Project Tasks'!$H5,'Main Project Tasks'!$I5)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H5,'Main Project Tasks'!$I5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notes" dataDxfId="9" dataCellStyle="Text"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notes" dataDxfId="6" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1008,20 +1076,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F01F232-0EE2-47A0-950B-1E362C0D1FA1}" name="ProjectTracker3" displayName="ProjectTracker3" ref="B4:N32" totalsRowShown="0" tableBorderDxfId="8" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B4:N32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F01F232-0EE2-47A0-950B-1E362C0D1FA1}" name="ProjectTracker3" displayName="ProjectTracker3" ref="C4:O44" totalsRowShown="0" tableBorderDxfId="3" headerRowCellStyle="Heading 2">
+  <autoFilter ref="C4:O44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{11F70E6F-36AA-4FC1-B9F3-5A5BFBBF511F}" name="Project Activity" dataCellStyle="Text"/>
+    <tableColumn id="1" xr3:uid="{11F70E6F-36AA-4FC1-B9F3-5A5BFBBF511F}" name="Sub Activities" dataCellStyle="Text"/>
     <tableColumn id="2" xr3:uid="{B705160C-3021-4B23-AC04-9888F180DA83}" name="Category" dataCellStyle="Text"/>
-    <tableColumn id="4" xr3:uid="{D61EBDA9-F711-49A0-8B34-0D95BF4BB999}" name="Estimated_x000a_Start" dataCellStyle="Date"/>
+    <tableColumn id="4" xr3:uid="{D61EBDA9-F711-49A0-8B34-0D95BF4BB999}" name="Estimated_x000a_Start" dataDxfId="0" dataCellStyle="Date">
+      <calculatedColumnFormula>TODAY()-2</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{2F10D1A0-9B8C-46E3-AB8B-9B9B865535F2}" name="Estimated _x000a_Finish" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{F17C4EA7-00C5-4D76-A7BB-DF333A785BB8}" name="Estimated Work (in hours)" dataCellStyle="Numbers"/>
     <tableColumn id="7" xr3:uid="{CC86B29C-954F-4E99-9731-73323C6BA510}" name="Estimated Duration (in days)" dataCellStyle="Estimated duration">
-      <calculatedColumnFormula>IF(COUNTA('Project Activities Breakdown'!$D5,'Project Activities Breakdown'!$E5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D5,'Project Activities Breakdown'!$E5,FALSE))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(COUNTA('Project Activities Breakdown'!$E5,'Project Activities Breakdown'!$F5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E5,'Project Activities Breakdown'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{5A561EC1-EC71-49DA-B694-7910B2FF0F68}" name="Actual _x000a_Start" dataCellStyle="Actual Start"/>
     <tableColumn id="9" xr3:uid="{F1094858-DC5D-439D-8333-7222EC3C9899}" name="Actual_x000a_Finish" dataCellStyle="Date"/>
-    <tableColumn id="13" xr3:uid="{77CFD8F4-71C9-4DE7-A6E9-B69F43980470}" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="7" dataCellStyle="Flag">
+    <tableColumn id="13" xr3:uid="{77CFD8F4-71C9-4DE7-A6E9-B69F43980470}" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="2" dataCellStyle="Flag">
       <calculatedColumnFormula>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{43408292-C73C-4BAE-B708-C206C4B07F49}" name="Actual Work (in hours)" dataCellStyle="Numbers"/>
@@ -1029,9 +1099,9 @@
       <calculatedColumnFormula>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{8197B160-C81B-4540-AB91-056A0F4B8CAA}" name="Actual Duration (in days)" dataCellStyle="Grey Column">
-      <calculatedColumnFormula>IF(COUNTA('Project Activities Breakdown'!$H5,'Project Activities Breakdown'!$I5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H5,'Project Activities Breakdown'!$I5,FALSE))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(COUNTA('Project Activities Breakdown'!$I5,'Project Activities Breakdown'!$J5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I5,'Project Activities Breakdown'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BD0BED7E-9190-40B1-9D05-ACA31F6949D6}" name="Notes" dataDxfId="6" dataCellStyle="Text"/>
+    <tableColumn id="12" xr3:uid="{BD0BED7E-9190-40B1-9D05-ACA31F6949D6}" name="Notes" dataDxfId="1" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1043,8 +1113,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:B11" totalsRowShown="0" headerRowCellStyle="Heading 2" dataCellStyle="Text">
-  <autoFilter ref="B4:B11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:B12" totalsRowShown="0" headerRowCellStyle="Heading 2" dataCellStyle="Text">
+  <autoFilter ref="B4:B12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category Name" dataCellStyle="Text"/>
   </tableColumns>
@@ -1291,8 +1361,8 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:N17"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1313,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1"/>
     </row>
@@ -1339,34 +1409,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>4</v>
@@ -1374,18 +1444,18 @@
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="18">
         <f ca="1">TODAY()+1</f>
-        <v>43197</v>
+        <v>43205</v>
       </c>
       <c r="E5" s="18">
         <f ca="1">TODAY()+2</f>
-        <v>43198</v>
+        <v>43206</v>
       </c>
       <c r="F5" s="15">
         <v>7</v>
@@ -1396,7 +1466,7 @@
       </c>
       <c r="H5" s="19">
         <f ca="1">TODAY()-65</f>
-        <v>43131</v>
+        <v>43139</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="17">
@@ -1418,18 +1488,18 @@
     </row>
     <row r="6" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="18">
         <f ca="1">TODAY()+2</f>
-        <v>43198</v>
+        <v>43206</v>
       </c>
       <c r="E6" s="31">
         <f ca="1">TODAY()+7</f>
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="F6" s="15">
         <v>60</v>
@@ -1457,18 +1527,18 @@
     </row>
     <row r="7" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="18">
         <f ca="1">TODAY()+8</f>
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="E7" s="18">
         <f ca="1">TODAY()+9</f>
-        <v>43205</v>
+        <v>43213</v>
       </c>
       <c r="F7" s="15">
         <v>5</v>
@@ -1494,81 +1564,89 @@
       </c>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="18">
-        <f ca="1">TODAY()+9</f>
-        <v>43205</v>
+        <f ca="1">TODAY()+12</f>
+        <v>43216</v>
       </c>
       <c r="E8" s="18">
-        <f ca="1">TODAY()+11</f>
-        <v>43207</v>
+        <f ca="1">TODAY()+17</f>
+        <v>43221</v>
       </c>
       <c r="F8" s="15">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G8" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D8,'Main Project Tasks'!$E8)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D8,'Main Project Tasks'!$E8,FALSE))</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="29" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19">
+        <f ca="1">TODAY()-41</f>
+        <v>43163</v>
+      </c>
+      <c r="I8" s="18">
+        <f ca="1">TODAY()-7</f>
+        <v>43197</v>
+      </c>
+      <c r="J8" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="25" t="str">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>390</v>
+      </c>
+      <c r="L8" s="17">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="20" t="str">
-        <f>IF(COUNTA('Main Project Tasks'!$H8,'Main Project Tasks'!$I8)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H8,'Main Project Tasks'!$I8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20">
+        <f ca="1">IF(COUNTA('Main Project Tasks'!$H8,'Main Project Tasks'!$I8)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H8,'Main Project Tasks'!$I8,FALSE))</f>
+        <v>33</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
-        <f ca="1">TODAY()+12</f>
-        <v>43208</v>
+        <f ca="1">TODAY()+17</f>
+        <v>43221</v>
       </c>
       <c r="E9" s="18">
-        <f ca="1">TODAY()+17</f>
-        <v>43213</v>
+        <f ca="1">TODAY()+21</f>
+        <v>43225</v>
       </c>
       <c r="F9" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G9" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D9,'Main Project Tasks'!$E9)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D9,'Main Project Tasks'!$E9,FALSE))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f ca="1">TODAY()-41</f>
-        <v>43155</v>
+        <f ca="1">TODAY()-100</f>
+        <v>43104</v>
       </c>
       <c r="I9" s="18">
-        <f ca="1">TODAY()-7</f>
-        <v>43189</v>
+        <f ca="1">TODAY()-27</f>
+        <v>43177</v>
       </c>
       <c r="J9" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
         <v>1</v>
       </c>
       <c r="K9" s="15">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="L9" s="17">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
@@ -1576,78 +1654,70 @@
       </c>
       <c r="M9" s="20">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$H9,'Main Project Tasks'!$I9)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H9,'Main Project Tasks'!$I9,FALSE))</f>
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="18">
-        <f ca="1">TODAY()+17</f>
-        <v>43213</v>
+        <f ca="1">TODAY()+22</f>
+        <v>43226</v>
       </c>
       <c r="E10" s="18">
-        <f ca="1">TODAY()+21</f>
-        <v>43217</v>
+        <f ca="1">TODAY()+24</f>
+        <v>43228</v>
       </c>
       <c r="F10" s="15">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G10" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D10,'Main Project Tasks'!$E10)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D10,'Main Project Tasks'!$E10,FALSE))</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="19">
-        <f ca="1">TODAY()-100</f>
-        <v>43096</v>
-      </c>
-      <c r="I10" s="18">
-        <f ca="1">TODAY()-27</f>
-        <v>43169</v>
-      </c>
-      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="29" t="str">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>500</v>
-      </c>
-      <c r="L10" s="17">
+        <v/>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="25" t="str">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="20">
-        <f ca="1">IF(COUNTA('Main Project Tasks'!$H10,'Main Project Tasks'!$I10)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H10,'Main Project Tasks'!$I10,FALSE))</f>
-        <v>73</v>
-      </c>
-      <c r="N10" s="14"/>
+        <v/>
+      </c>
+      <c r="M10" s="20" t="str">
+        <f>IF(COUNTA('Main Project Tasks'!$H10,'Main Project Tasks'!$I10)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H10,'Main Project Tasks'!$I10,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="18">
-        <f ca="1">TODAY()+22</f>
-        <v>43218</v>
+        <f ca="1">TODAY()+25</f>
+        <v>43229</v>
       </c>
       <c r="E11" s="18">
-        <f ca="1">TODAY()+23</f>
-        <v>43219</v>
+        <f ca="1">TODAY()+27</f>
+        <v>43231</v>
       </c>
       <c r="F11" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D11,'Main Project Tasks'!$E11)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D11,'Main Project Tasks'!$E11,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="18"/>
@@ -1668,33 +1738,33 @@
     </row>
     <row r="12" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="18">
-        <f ca="1">TODAY()+24</f>
-        <v>43220</v>
+        <f ca="1">TODAY()+28</f>
+        <v>43232</v>
       </c>
       <c r="E12" s="18">
-        <f ca="1">TODAY()+26</f>
-        <v>43222</v>
+        <f ca="1">TODAY()+29</f>
+        <v>43233</v>
       </c>
       <c r="F12" s="15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G12" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D12,'Main Project Tasks'!$E12)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D12,'Main Project Tasks'!$E12,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19">
         <f ca="1">TODAY()-90</f>
-        <v>43106</v>
+        <v>43114</v>
       </c>
       <c r="I12" s="18">
         <f ca="1">TODAY()-71</f>
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="J12" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -1709,24 +1779,24 @@
       </c>
       <c r="M12" s="20">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$H12,'Main Project Tasks'!$I12)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H12,'Main Project Tasks'!$I12,FALSE))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="18">
-        <f ca="1">TODAY()+27</f>
-        <v>43223</v>
+        <f ca="1">TODAY()+29</f>
+        <v>43233</v>
       </c>
       <c r="E13" s="18">
-        <f ca="1">TODAY()+32</f>
-        <v>43228</v>
+        <f ca="1">TODAY()+34</f>
+        <v>43238</v>
       </c>
       <c r="F13" s="15">
         <v>80</v>
@@ -1737,11 +1807,11 @@
       </c>
       <c r="H13" s="19">
         <f ca="1">TODAY()-90</f>
-        <v>43106</v>
+        <v>43114</v>
       </c>
       <c r="I13" s="18">
         <f ca="1">TODAY()-44</f>
-        <v>43152</v>
+        <v>43160</v>
       </c>
       <c r="J13" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -1756,39 +1826,39 @@
       </c>
       <c r="M13" s="20">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$H13,'Main Project Tasks'!$I13)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H13,'Main Project Tasks'!$I13,FALSE))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="18">
-        <f ca="1">TODAY()+33</f>
-        <v>43229</v>
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
       </c>
       <c r="E14" s="18">
-        <f ca="1">TODAY()+34</f>
-        <v>43230</v>
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
       </c>
       <c r="F14" s="15">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G14" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D14,'Main Project Tasks'!$E14)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D14,'Main Project Tasks'!$E14,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="19">
         <f ca="1">TODAY()-60</f>
-        <v>43136</v>
+        <v>43144</v>
       </c>
       <c r="I14" s="18">
         <f ca="1">TODAY()-45</f>
-        <v>43151</v>
+        <v>43159</v>
       </c>
       <c r="J14" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -1797,9 +1867,9 @@
       <c r="K14" s="15">
         <v>510</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="17" t="str">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M14" s="20">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$H14,'Main Project Tasks'!$I14)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H14,'Main Project Tasks'!$I14,FALSE))</f>
@@ -1809,48 +1879,48 @@
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="14" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D15" s="18">
-        <f ca="1">TODAY()-44</f>
-        <v>43152</v>
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
       </c>
       <c r="E15" s="18">
-        <f ca="1">TODAY()-20</f>
-        <v>43176</v>
+        <f ca="1">TODAY()+38</f>
+        <v>43242</v>
       </c>
       <c r="F15" s="15">
-        <v>750</v>
+        <v>20</v>
       </c>
       <c r="G15" s="28">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$D15,'Main Project Tasks'!$E15)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$D15,'Main Project Tasks'!$E15,FALSE))</f>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H15" s="19">
         <f ca="1">TODAY()-44</f>
-        <v>43152</v>
+        <v>43160</v>
       </c>
       <c r="I15" s="18">
         <f ca="1">TODAY()-15</f>
-        <v>43181</v>
+        <v>43189</v>
       </c>
       <c r="J15" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="15">
         <v>790</v>
       </c>
       <c r="L15" s="17">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="20">
         <f ca="1">IF(COUNTA('Main Project Tasks'!$H15,'Main Project Tasks'!$I15)&lt;&gt;2,"",DAYS360('Main Project Tasks'!$H15,'Main Project Tasks'!$I15,FALSE))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N15" s="14"/>
     </row>
@@ -1886,12 +1956,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:K17">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>(ABS((K5-F5))/F5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M17">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>(ABS((M5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,7 +1999,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
+          <x14:cfRule type="iconSet" priority="50" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1948,7 +2018,7 @@
           <xm:sqref>J5:J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
+          <x14:cfRule type="iconSet" priority="52" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1978,1063 +2048,1642 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="22.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.6875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.1875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.8125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.1875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3"/>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3"/>
-    </row>
-    <row r="4" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="94.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F5" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G5" s="15">
+        <v>3</v>
+      </c>
+      <c r="H5" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E5,'Project Activities Breakdown'!$F5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E5,'Project Activities Breakdown'!$F5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <f ca="1">TODAY()-65</f>
+        <v>43139</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="17" t="str">
+        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="20" t="str">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$I5,'Project Activities Breakdown'!$J5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I5,'Project Activities Breakdown'!$J5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="134.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F6" s="31">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E6,'Project Activities Breakdown'!$F6)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E6,'Project Activities Breakdown'!$F6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="25" t="str">
+        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="20" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I6,'Project Activities Breakdown'!$J6)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I6,'Project Activities Breakdown'!$J6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F7" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E7,'Project Activities Breakdown'!$F7)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E7,'Project Activities Breakdown'!$F7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="25" t="str">
+        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="20" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I7,'Project Activities Breakdown'!$J7)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I7,'Project Activities Breakdown'!$J7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ref="E5:E44" ca="1" si="0">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F8" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E8,'Project Activities Breakdown'!$F8)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E8,'Project Activities Breakdown'!$F8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="25" t="str">
+        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="20" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I8,'Project Activities Breakdown'!$J8)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I8,'Project Activities Breakdown'!$J8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>43202</v>
+      </c>
+      <c r="F9" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E9,'Project Activities Breakdown'!$F9)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E9,'Project Activities Breakdown'!$F9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <f ca="1">TODAY()-41</f>
+        <v>43163</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>43202</v>
+      </c>
+      <c r="F10" s="18">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E10,'Project Activities Breakdown'!$F10)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E10,'Project Activities Breakdown'!$F10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f ca="1">TODAY()-100</f>
+        <v>43104</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="18">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="F11" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E11,'Project Activities Breakdown'!$F11)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E11,'Project Activities Breakdown'!$F11,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="F12" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G12" s="15">
+        <v>6</v>
+      </c>
+      <c r="H12" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E12,'Project Activities Breakdown'!$F12)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E12,'Project Activities Breakdown'!$F12,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <f ca="1">TODAY()-90</f>
+        <v>43114</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="18">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="F13" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E13,'Project Activities Breakdown'!$F13)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E13,'Project Activities Breakdown'!$F13,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <f ca="1">TODAY()-90</f>
+        <v>43114</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="18">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="F14" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E14,'Project Activities Breakdown'!$F14)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E14,'Project Activities Breakdown'!$F14,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <f ca="1">TODAY()-60</f>
+        <v>43144</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="F15" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E15,'Project Activities Breakdown'!$F15)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E15,'Project Activities Breakdown'!$F15,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <f ca="1">TODAY()-45</f>
+        <v>43159</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="22">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F16" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E16,'Project Activities Breakdown'!$F16)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E16,'Project Activities Breakdown'!$F16,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="24">
+        <v>42434</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="17" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="22">
+        <f ca="1">TODAY()+22</f>
+        <v>43226</v>
+      </c>
+      <c r="F17" s="22">
+        <f ca="1">TODAY()+24</f>
+        <v>43228</v>
+      </c>
+      <c r="G17" s="23">
+        <v>15</v>
+      </c>
+      <c r="H17" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E17,'Project Activities Breakdown'!$F17)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E17,'Project Activities Breakdown'!$F17,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F18" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G18" s="23">
+        <v>70</v>
+      </c>
+      <c r="H18" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E18,'Project Activities Breakdown'!$F18)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E18,'Project Activities Breakdown'!$F18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F19" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G19" s="23">
+        <v>63</v>
+      </c>
+      <c r="H19" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E19,'Project Activities Breakdown'!$F19)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E19,'Project Activities Breakdown'!$F19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F20" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G20" s="23">
+        <v>20</v>
+      </c>
+      <c r="H20" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E20,'Project Activities Breakdown'!$F20)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E20,'Project Activities Breakdown'!$F20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F21" s="22">
+        <f ca="1">TODAY()+3</f>
+        <v>43207</v>
+      </c>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E21,'Project Activities Breakdown'!$F21)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E21,'Project Activities Breakdown'!$F21,FALSE))</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F22" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E22,'Project Activities Breakdown'!$F22)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E22,'Project Activities Breakdown'!$F22,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="D23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F23" s="22">
+        <f ca="1">TODAY()+2</f>
+        <v>43206</v>
+      </c>
+      <c r="G23" s="23">
+        <v>15</v>
+      </c>
+      <c r="H23" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E23,'Project Activities Breakdown'!$F23)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E23,'Project Activities Breakdown'!$F23,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F24" s="22">
+        <f ca="1">TODAY()+4</f>
+        <v>43208</v>
+      </c>
+      <c r="G24" s="23">
+        <v>15</v>
+      </c>
+      <c r="H24" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E24,'Project Activities Breakdown'!$F24)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E24,'Project Activities Breakdown'!$F24,FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="26"/>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43204</v>
+      </c>
+      <c r="F25" s="22">
+        <f ca="1">TODAY()+4</f>
+        <v>43208</v>
+      </c>
+      <c r="G25" s="23">
+        <v>10</v>
+      </c>
+      <c r="H25" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E25,'Project Activities Breakdown'!$F25)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E25,'Project Activities Breakdown'!$F25,FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="22">
+        <f ca="1">TODAY()+17</f>
+        <v>43221</v>
+      </c>
+      <c r="F26" s="22">
+        <f ca="1">TODAY()+21</f>
+        <v>43225</v>
+      </c>
+      <c r="G26" s="23">
+        <v>50</v>
+      </c>
+      <c r="H26" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E26,'Project Activities Breakdown'!$F26)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E26,'Project Activities Breakdown'!$F26,FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="22">
+        <f ca="1">TODAY()+17</f>
+        <v>43221</v>
+      </c>
+      <c r="F27" s="22">
+        <f ca="1">TODAY()+19</f>
+        <v>43223</v>
+      </c>
+      <c r="G27" s="23">
+        <v>20</v>
+      </c>
+      <c r="H27" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E27,'Project Activities Breakdown'!$F27)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E27,'Project Activities Breakdown'!$F27,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="22">
+        <f ca="1">TODAY()+19</f>
+        <v>43223</v>
+      </c>
+      <c r="F28" s="22">
+        <f ca="1">TODAY()+20</f>
+        <v>43224</v>
+      </c>
+      <c r="G28" s="23">
+        <v>20</v>
+      </c>
+      <c r="H28" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E28,'Project Activities Breakdown'!$F28)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E28,'Project Activities Breakdown'!$F28,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="22">
+        <f ca="1">TODAY()+21</f>
+        <v>43225</v>
+      </c>
+      <c r="F29" s="22">
+        <f ca="1">TODAY()+22</f>
+        <v>43226</v>
+      </c>
+      <c r="G29" s="23">
+        <v>10</v>
+      </c>
+      <c r="H29" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E29,'Project Activities Breakdown'!$F29)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E29,'Project Activities Breakdown'!$F29,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="22">
+        <f ca="1">TODAY()+28</f>
+        <v>43232</v>
+      </c>
+      <c r="F30" s="22">
+        <f ca="1">TODAY()+29</f>
+        <v>43233</v>
+      </c>
+      <c r="G30" s="23">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E30,'Project Activities Breakdown'!$F30)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E30,'Project Activities Breakdown'!$F30,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="2:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="22">
+        <f ca="1">TODAY()+29</f>
+        <v>43233</v>
+      </c>
+      <c r="F31" s="22">
+        <f ca="1">TODAY()+34</f>
+        <v>43238</v>
+      </c>
+      <c r="G31" s="23">
+        <v>80</v>
+      </c>
+      <c r="H31" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E31,'Project Activities Breakdown'!$F31)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E31,'Project Activities Breakdown'!$F31,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="32"/>
+    </row>
+    <row r="32" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="22">
+        <f ca="1">TODAY()+29</f>
+        <v>43233</v>
+      </c>
+      <c r="F32" s="22">
+        <f ca="1">TODAY()+30</f>
+        <v>43234</v>
+      </c>
+      <c r="G32" s="23">
+        <v>30</v>
+      </c>
+      <c r="H32" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E32,'Project Activities Breakdown'!$F32)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E32,'Project Activities Breakdown'!$F32,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="22">
+        <f ca="1">TODAY()+31</f>
+        <v>43235</v>
+      </c>
+      <c r="F33" s="22">
+        <f ca="1">TODAY()+32</f>
+        <v>43236</v>
+      </c>
+      <c r="G33" s="23">
+        <v>30</v>
+      </c>
+      <c r="H33" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E33,'Project Activities Breakdown'!$F33)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E33,'Project Activities Breakdown'!$F33,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="32"/>
+    </row>
+    <row r="34" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22">
+        <f ca="1">TODAY()+34</f>
+        <v>43238</v>
+      </c>
+      <c r="F34" s="22">
+        <f ca="1">TODAY()+34</f>
+        <v>43238</v>
+      </c>
+      <c r="G34" s="23">
+        <v>20</v>
+      </c>
+      <c r="H34" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E34,'Project Activities Breakdown'!$F34)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E34,'Project Activities Breakdown'!$F34,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="35" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="22">
+        <f ca="1">TODAY()+34</f>
+        <v>43238</v>
+      </c>
+      <c r="F35" s="22">
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
+      </c>
+      <c r="G35" s="23">
+        <v>20</v>
+      </c>
+      <c r="H35" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E35,'Project Activities Breakdown'!$F35)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E35,'Project Activities Breakdown'!$F35,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="32"/>
+    </row>
+    <row r="36" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="22">
+        <f ca="1">TODAY()-2</f>
+        <v>43202</v>
+      </c>
+      <c r="F36" s="22">
+        <f ca="1">TODAY()-1</f>
+        <v>43203</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+      <c r="H36" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E36,'Project Activities Breakdown'!$F36)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E36,'Project Activities Breakdown'!$F36,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>43202</v>
+      </c>
+      <c r="F37" s="22">
+        <f ca="1">TODAY()+4</f>
+        <v>43208</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1</v>
+      </c>
+      <c r="H37" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E37,'Project Activities Breakdown'!$F37)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E37,'Project Activities Breakdown'!$F37,FALSE))</f>
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15">
-        <v>7</v>
-      </c>
-      <c r="G5" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D5,'Project Activities Breakdown'!$E5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D5,'Project Activities Breakdown'!$E5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H5" s="19">
-        <f ca="1">TODAY()-65</f>
-        <v>43131</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17">
+      <c r="I37" s="24"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="29" t="str">
         <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>300</v>
-      </c>
-      <c r="L5" s="17" t="str">
+        <v/>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="22">
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
+      </c>
+      <c r="F38" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="G38" s="23">
+        <v>5</v>
+      </c>
+      <c r="H38" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E38,'Project Activities Breakdown'!$F38)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E38,'Project Activities Breakdown'!$F38,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="32"/>
+    </row>
+    <row r="39" spans="2:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="22">
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
+      </c>
+      <c r="F39" s="22">
+        <f ca="1">TODAY()+38</f>
+        <v>43242</v>
+      </c>
+      <c r="G39" s="23">
+        <v>25</v>
+      </c>
+      <c r="H39" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E39,'Project Activities Breakdown'!$F39)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E39,'Project Activities Breakdown'!$F39,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="22">
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
+      </c>
+      <c r="F40" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="G40" s="23">
+        <v>5</v>
+      </c>
+      <c r="H40" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E40,'Project Activities Breakdown'!$F40)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E40,'Project Activities Breakdown'!$F40,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="25" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="26"/>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="2:15" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="22">
+        <f ca="1">TODAY()+36</f>
+        <v>43240</v>
+      </c>
+      <c r="F41" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="G41" s="23">
+        <v>5</v>
+      </c>
+      <c r="H41" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E41,'Project Activities Breakdown'!$F41)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E41,'Project Activities Breakdown'!$F41,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="29" t="str">
+        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="25" t="str">
         <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="M5" s="20" t="str">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H5,'Project Activities Breakdown'!$I5)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H5,'Project Activities Breakdown'!$I5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="134.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="15">
-        <v>60</v>
-      </c>
-      <c r="G6" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D6,'Project Activities Breakdown'!$E6)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D6,'Project Activities Breakdown'!$E6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="29" t="str">
+      <c r="N41" s="26" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I41,'Project Activities Breakdown'!$J41)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I41,'Project Activities Breakdown'!$J41,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O41" s="32"/>
+    </row>
+    <row r="42" spans="2:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="F42" s="22">
+        <f ca="1">TODAY()+38</f>
+        <v>43242</v>
+      </c>
+      <c r="G42" s="23">
+        <v>5</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="2:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="F43" s="22">
+        <f ca="1">TODAY()+38</f>
+        <v>43242</v>
+      </c>
+      <c r="G43" s="23">
+        <v>5</v>
+      </c>
+      <c r="H43" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E43,'Project Activities Breakdown'!$F43)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E43,'Project Activities Breakdown'!$F43,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="29" t="str">
         <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="20" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H6,'Project Activities Breakdown'!$I6)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H6,'Project Activities Breakdown'!$I6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="15">
+      <c r="L43" s="23"/>
+      <c r="M43" s="25" t="str">
+        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="26" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I43,'Project Activities Breakdown'!$J43)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I43,'Project Activities Breakdown'!$J43,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O43" s="32"/>
+    </row>
+    <row r="44" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="22">
+        <f ca="1">TODAY()+37</f>
+        <v>43241</v>
+      </c>
+      <c r="F44" s="22">
+        <f ca="1">TODAY()+38</f>
+        <v>43242</v>
+      </c>
+      <c r="G44" s="23">
         <v>5</v>
       </c>
-      <c r="G7" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D7,'Project Activities Breakdown'!$E7)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D7,'Project Activities Breakdown'!$E7,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="29" t="str">
+      <c r="H44" s="28">
+        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$E44,'Project Activities Breakdown'!$F44)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$E44,'Project Activities Breakdown'!$F44,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="29" t="str">
         <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="20" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H7,'Project Activities Breakdown'!$I7)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H7,'Project Activities Breakdown'!$I7,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15">
-        <v>15</v>
-      </c>
-      <c r="G8" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D8,'Project Activities Breakdown'!$E8)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D8,'Project Activities Breakdown'!$E8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="20" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H8,'Project Activities Breakdown'!$I8)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H8,'Project Activities Breakdown'!$I8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D9,'Project Activities Breakdown'!$E9)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D9,'Project Activities Breakdown'!$E9,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H9" s="19">
-        <f ca="1">TODAY()-41</f>
-        <v>43155</v>
-      </c>
-      <c r="I9" s="18">
-        <f ca="1">TODAY()-7</f>
-        <v>43189</v>
-      </c>
-      <c r="J9" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>390</v>
-      </c>
-      <c r="L9" s="17" t="str">
+      <c r="L44" s="23"/>
+      <c r="M44" s="25" t="str">
         <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="M9" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H9,'Project Activities Breakdown'!$I9)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H9,'Project Activities Breakdown'!$I9,FALSE))</f>
-        <v>36</v>
-      </c>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15">
-        <v>50</v>
-      </c>
-      <c r="G10" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D10,'Project Activities Breakdown'!$E10)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D10,'Project Activities Breakdown'!$E10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H10" s="19">
-        <f ca="1">TODAY()-100</f>
-        <v>43096</v>
-      </c>
-      <c r="I10" s="18">
-        <f ca="1">TODAY()-27</f>
-        <v>43169</v>
-      </c>
-      <c r="J10" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>500</v>
-      </c>
-      <c r="L10" s="17" t="str">
-        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H10,'Project Activities Breakdown'!$I10)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H10,'Project Activities Breakdown'!$I10,FALSE))</f>
-        <v>73</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15">
-        <v>10</v>
-      </c>
-      <c r="G11" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D11,'Project Activities Breakdown'!$E11)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D11,'Project Activities Breakdown'!$E11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="20" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H11,'Project Activities Breakdown'!$I11)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H11,'Project Activities Breakdown'!$I11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="15">
-        <v>15</v>
-      </c>
-      <c r="G12" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D12,'Project Activities Breakdown'!$E12)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D12,'Project Activities Breakdown'!$E12,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H12" s="19">
-        <f ca="1">TODAY()-90</f>
-        <v>43106</v>
-      </c>
-      <c r="I12" s="18">
-        <f ca="1">TODAY()-71</f>
-        <v>43125</v>
-      </c>
-      <c r="J12" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>276</v>
-      </c>
-      <c r="L12" s="17" t="str">
-        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H12,'Project Activities Breakdown'!$I12)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H12,'Project Activities Breakdown'!$I12,FALSE))</f>
-        <v>19</v>
-      </c>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15">
-        <v>80</v>
-      </c>
-      <c r="G13" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D13,'Project Activities Breakdown'!$E13)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D13,'Project Activities Breakdown'!$E13,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H13" s="19">
-        <f ca="1">TODAY()-90</f>
-        <v>43106</v>
-      </c>
-      <c r="I13" s="18">
-        <f ca="1">TODAY()-44</f>
-        <v>43152</v>
-      </c>
-      <c r="J13" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
-        <v>310</v>
-      </c>
-      <c r="L13" s="17" t="str">
-        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H13,'Project Activities Breakdown'!$I13)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H13,'Project Activities Breakdown'!$I13,FALSE))</f>
-        <v>45</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15">
-        <v>24</v>
-      </c>
-      <c r="G14" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D14,'Project Activities Breakdown'!$E14)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D14,'Project Activities Breakdown'!$E14,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H14" s="19">
-        <f ca="1">TODAY()-60</f>
-        <v>43136</v>
-      </c>
-      <c r="I14" s="18">
-        <f ca="1">TODAY()-45</f>
-        <v>43151</v>
-      </c>
-      <c r="J14" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
-        <v>510</v>
-      </c>
-      <c r="L14" s="17" t="str">
-        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H14,'Project Activities Breakdown'!$I14)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H14,'Project Activities Breakdown'!$I14,FALSE))</f>
-        <v>15</v>
-      </c>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15">
-        <v>450</v>
-      </c>
-      <c r="G15" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D15,'Project Activities Breakdown'!$E15)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D15,'Project Activities Breakdown'!$E15,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H15" s="19">
-        <f ca="1">TODAY()-45</f>
-        <v>43151</v>
-      </c>
-      <c r="I15" s="18">
-        <f ca="1">TODAY()-5</f>
-        <v>43191</v>
-      </c>
-      <c r="J15" s="17">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>430</v>
-      </c>
-      <c r="L15" s="17" t="str">
-        <f ca="1">IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="20">
-        <f ca="1">IF(COUNTA('Project Activities Breakdown'!$H15,'Project Activities Breakdown'!$I15)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H15,'Project Activities Breakdown'!$I15,FALSE))</f>
-        <v>41</v>
-      </c>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23">
-        <v>250</v>
-      </c>
-      <c r="G16" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D16,'Project Activities Breakdown'!$E16)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D16,'Project Activities Breakdown'!$E16,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H16" s="24">
-        <v>42434</v>
-      </c>
-      <c r="I16" s="22">
-        <v>42495</v>
-      </c>
-      <c r="J16" s="25">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
-        <v>200</v>
-      </c>
-      <c r="L16" s="17" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="26">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H16,'Project Activities Breakdown'!$I16)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H16,'Project Activities Breakdown'!$I16,FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D17,'Project Activities Breakdown'!$E17)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D17,'Project Activities Breakdown'!$E17,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H17,'Project Activities Breakdown'!$I17)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H17,'Project Activities Breakdown'!$I17,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D18,'Project Activities Breakdown'!$E18)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D18,'Project Activities Breakdown'!$E18,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H18,'Project Activities Breakdown'!$I18)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H18,'Project Activities Breakdown'!$I18,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D19,'Project Activities Breakdown'!$E19)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D19,'Project Activities Breakdown'!$E19,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H19,'Project Activities Breakdown'!$I19)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H19,'Project Activities Breakdown'!$I19,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D20,'Project Activities Breakdown'!$E20)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D20,'Project Activities Breakdown'!$E20,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H20,'Project Activities Breakdown'!$I20)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H20,'Project Activities Breakdown'!$I20,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D21,'Project Activities Breakdown'!$E21)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D21,'Project Activities Breakdown'!$E21,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H21,'Project Activities Breakdown'!$I21)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H21,'Project Activities Breakdown'!$I21,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D22,'Project Activities Breakdown'!$E22)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D22,'Project Activities Breakdown'!$E22,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H22,'Project Activities Breakdown'!$I22)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H22,'Project Activities Breakdown'!$I22,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D23,'Project Activities Breakdown'!$E23)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D23,'Project Activities Breakdown'!$E23,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H23,'Project Activities Breakdown'!$I23)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H23,'Project Activities Breakdown'!$I23,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N23" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D24,'Project Activities Breakdown'!$E24)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D24,'Project Activities Breakdown'!$E24,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H24,'Project Activities Breakdown'!$I24)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H24,'Project Activities Breakdown'!$I24,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D25,'Project Activities Breakdown'!$E25)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D25,'Project Activities Breakdown'!$E25,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H25,'Project Activities Breakdown'!$I25)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H25,'Project Activities Breakdown'!$I25,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N25" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D26,'Project Activities Breakdown'!$E26)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D26,'Project Activities Breakdown'!$E26,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H26,'Project Activities Breakdown'!$I26)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H26,'Project Activities Breakdown'!$I26,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D27,'Project Activities Breakdown'!$E27)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D27,'Project Activities Breakdown'!$E27,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H27,'Project Activities Breakdown'!$I27)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H27,'Project Activities Breakdown'!$I27,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D28,'Project Activities Breakdown'!$E28)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D28,'Project Activities Breakdown'!$E28,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H28,'Project Activities Breakdown'!$I28)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H28,'Project Activities Breakdown'!$I28,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D29,'Project Activities Breakdown'!$E29)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D29,'Project Activities Breakdown'!$E29,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M29" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H29,'Project Activities Breakdown'!$I29)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H29,'Project Activities Breakdown'!$I29,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D30,'Project Activities Breakdown'!$E30)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D30,'Project Activities Breakdown'!$E30,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M30" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H30,'Project Activities Breakdown'!$I30)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H30,'Project Activities Breakdown'!$I30,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="2:14" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D31,'Project Activities Breakdown'!$E31)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D31,'Project Activities Breakdown'!$E31,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M31" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H31,'Project Activities Breakdown'!$I31)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H31,'Project Activities Breakdown'!$I31,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="2:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="28" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$D32,'Project Activities Breakdown'!$E32)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$D32,'Project Activities Breakdown'!$E32,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="29" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Work (in hours)]]-ProjectTracker3[[#This Row],[Estimated Work (in hours)]])/ProjectTracker3[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="25" t="str">
-        <f>IFERROR(IF(ProjectTracker3[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker3[[#This Row],[Actual Duration (in days)]]-ProjectTracker3[[#This Row],[Estimated Duration (in days)]])/ProjectTracker3[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="26" t="str">
-        <f>IF(COUNTA('Project Activities Breakdown'!$H32,'Project Activities Breakdown'!$I32)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$H32,'Project Activities Breakdown'!$I32,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N32" s="32" t="s">
-        <v>55</v>
-      </c>
+      <c r="N44" s="26" t="str">
+        <f>IF(COUNTA('Project Activities Breakdown'!$I44,'Project Activities Breakdown'!$J44)&lt;&gt;2,"",DAYS360('Project Activities Breakdown'!$I44,'Project Activities Breakdown'!$J44,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O44" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K5:K32">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>(ABS((K5-F5))/F5)&gt;FlagPercent</formula>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L5:L44">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>(ABS((L5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M32">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>(ABS((M5-G5))/G5)&gt;FlagPercent</formula>
+  <conditionalFormatting sqref="N5:N44">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>(ABS((N5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter notes for projects in this column" sqref="N4" xr:uid="{A68F0245-5B16-4AD2-9A03-07FF05DC4A8C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project duration in days. Values that meet the Over/Under criteria are highlighted bold, red and generate a flag icon in column M at left" sqref="M4" xr:uid="{8E85FBB5-7697-491A-B536-27B329575EC1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project work in hours. Values that meet the Over/Under criteria are highlighted bold, red and generate a flag icon in column K at left" sqref="K4" xr:uid="{322A1032-A97F-4ED9-B1FB-9D96E23BB1F6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Tracker table heading Flag icon for Over/Under Actual Duration (in days Values in column N that meet the Over/Under criteria generate a flag icon in each cell in this column. Blank cells indicate the values do not meet the Over/Under criteria" sqref="L4" xr:uid="{6152DA11-513E-443E-A92A-2837F8CCFE5C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Tracker table heading Flag icon for Over/Under Actual Work (in hours). Values in column L that meet the Over/Under criteria generate a flag icon in each cell in this column. Blank cells indicate the values do not meet the Over/Under criteria" sqref="J4" xr:uid="{37ABFC30-7571-4C3A-B460-B32D08910A8E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project finish date in this column" sqref="I4" xr:uid="{2E266388-FFEB-4A60-A156-2CAFD18671A9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project start date in this column" sqref="H4" xr:uid="{66EAC728-A635-44D9-85C2-4240FF11134A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter estimated duration of the project in days in this column" sqref="G4" xr:uid="{135F8D8C-289E-445B-9BEC-8A7461EED76E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter estimated project work in hours" sqref="F4" xr:uid="{5F5E40DE-49A8-439A-BD03-A9373A0E0EE4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the estimated project finish date in this column" sqref="E4" xr:uid="{2F506E58-8548-488B-A79A-42499BD9F8FE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the estimated project start date in this column" sqref="D4" xr:uid="{850934B6-911A-47C7-81FB-B4EF6B4B30D7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Category name from the dropdown list in each cell in this column. Options in this list are defined in the Setup worksheet. Press ALT+DOWN ARROW to navigate the list, then ENTER to make a selection" sqref="C4" xr:uid="{FD41028E-DC63-4DDC-AC65-F3370A2B7A96}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project names in this column" sqref="B4" xr:uid="{E5CB60C8-540A-41A5-AF04-8E7408CB672F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Customizable over/under percent used for highlighting the actual work in hours and days in the project table that are over or under this number" sqref="D2" xr:uid="{AE0E6FF6-A47F-4B7A-8390-EBA5287F0D5B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter projects in this project tracker worksheet. Set the percent over/under to flag in D2. Actual work in hours and actual duration in days will highlight over/under values with bold, red font styling and a flag icon in columns K and M " sqref="A1" xr:uid="{4C623E41-BC0A-4C8B-8DB4-C07C33AB9D23}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a category from the list or create a new category to display in this list from the Setup worksheet." sqref="C5:C32" xr:uid="{03D88D7A-DEC5-4277-ACEB-90D94E9DE6A9}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter notes for projects in this column" sqref="O4" xr:uid="{A68F0245-5B16-4AD2-9A03-07FF05DC4A8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project duration in days. Values that meet the Over/Under criteria are highlighted bold, red and generate a flag icon in column M at left" sqref="N4" xr:uid="{D42004EA-4A66-464B-8D9F-76288FEAFFAC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project work in hours. Values that meet the Over/Under criteria are highlighted bold, red and generate a flag icon in column K at left" sqref="L4" xr:uid="{5C59EB2B-FB9C-450F-B08A-78632EF8BF04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Tracker table heading Flag icon for Over/Under Actual Duration (in days Values in column N that meet the Over/Under criteria generate a flag icon in each cell in this column. Blank cells indicate the values do not meet the Over/Under criteria" sqref="M4" xr:uid="{C4F3ACBB-B429-43B1-ACF2-268F1974069C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Tracker table heading Flag icon for Over/Under Actual Work (in hours). Values in column L that meet the Over/Under criteria generate a flag icon in each cell in this column. Blank cells indicate the values do not meet the Over/Under criteria" sqref="K4" xr:uid="{7123F70C-0019-44C3-99BE-B2DCB3FA45B2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project finish date in this column" sqref="J4" xr:uid="{586027E7-0BB4-4D08-A655-D4C34F19E391}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project start date in this column" sqref="I4" xr:uid="{5A105149-8B10-4408-A34C-B76EAA234722}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter estimated duration of the project in days in this column" sqref="H4" xr:uid="{41012B05-8BCC-4DC7-A6DB-4BFE4268029E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter estimated project work in hours" sqref="G4" xr:uid="{C61C1FFB-BF5E-45B2-88C4-1917D2143E3D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the estimated project finish date in this column" sqref="F4" xr:uid="{6F4B77FD-3A0B-4291-9616-EC90917AA01F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the estimated project start date in this column" sqref="E4" xr:uid="{574017A5-393C-4415-BB4B-8D728137BF9C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Category name from the dropdown list in each cell in this column. Options in this list are defined in the Setup worksheet. Press ALT+DOWN ARROW to navigate the list, then ENTER to make a selection" sqref="D4" xr:uid="{49739F50-24AB-449A-BEB2-02A81D176E33}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project names in this column" sqref="C4" xr:uid="{26252878-7566-4B06-86DF-65A1410F72C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Customizable over/under percent used for highlighting the actual work in hours and days in the project table that are over or under this number" sqref="E2" xr:uid="{AE0E6FF6-A47F-4B7A-8390-EBA5287F0D5B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter projects in this project tracker worksheet. Set the percent over/under to flag in D2. Actual work in hours and actual duration in days will highlight over/under values with bold, red font styling and a flag icon in columns K and M " sqref="A1:B1" xr:uid="{4C623E41-BC0A-4C8B-8DB4-C07C33AB9D23}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a category from the list or create a new category to display in this list from the Setup worksheet." sqref="D5:D44" xr:uid="{03D88D7A-DEC5-4277-ACEB-90D94E9DE6A9}">
       <formula1>CategoryList</formula1>
     </dataValidation>
   </dataValidations>
@@ -3068,7 +3717,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J5:J32</xm:sqref>
+          <xm:sqref>K5:K44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="45" id="{9A69BAAE-9675-405D-85A7-20A5D73BC05D}">
@@ -3087,7 +3736,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L5:L32</xm:sqref>
+          <xm:sqref>M5:M44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3101,11 +3750,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3124,42 +3773,47 @@
     <row r="3" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
